--- a/data/trans_orig/P36BPD01_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD01_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B6A6A44-D01E-4178-9871-3DDFEFF026B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78D553AC-382A-4251-B54F-AE739104A39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D908C2F1-CDC7-4796-839F-99CC91F29D54}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A822A523-A730-491E-9AB4-75DFD064DD9E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="175">
   <si>
     <t>Población según si utilizan como principal grasa para cocinar el aceite de oliva en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -74,25 +74,25 @@
     <t>94,18%</t>
   </si>
   <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
   </si>
   <si>
     <t>91,57%</t>
   </si>
   <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
   </si>
   <si>
     <t>92,85%</t>
   </si>
   <si>
-    <t>90,88%</t>
+    <t>90,77%</t>
   </si>
   <si>
     <t>94,54%</t>
@@ -104,19 +104,19 @@
     <t>5,82%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
   </si>
   <si>
     <t>8,43%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
   </si>
   <si>
     <t>7,15%</t>
@@ -125,7 +125,7 @@
     <t>5,46%</t>
   </si>
   <si>
-    <t>9,12%</t>
+    <t>9,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>85,09%</t>
   </si>
   <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
   </si>
   <si>
     <t>87,15%</t>
   </si>
   <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>86,16%</t>
   </si>
   <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,7 +194,7 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,75%</t>
+    <t>98,8%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -203,19 +203,16 @@
     <t>98,96%</t>
   </si>
   <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>98,43%</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -224,25 +221,22 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>1,25%</t>
+    <t>1,2%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>1,57%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,325 +245,319 @@
     <t>98,26%</t>
   </si>
   <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>98,03%</t>
   </si>
   <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
     <t>96,17%</t>
   </si>
   <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
     <t>Sevilla</t>
   </si>
   <si>
     <t>95,05%</t>
   </si>
   <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
+    <t>94,37%</t>
   </si>
   <si>
     <t>95,52%</t>
   </si>
   <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>5,63%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
   </si>
   <si>
     <t>95,01%</t>
   </si>
   <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>95,42%</t>
   </si>
   <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
   </si>
   <si>
     <t>95,23%</t>
   </si>
   <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A988B4D-65FC-438E-92DA-BA9C5ECB50C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321FE87B-CFC9-4AA8-9FD1-854245718A67}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1326,7 +1314,7 @@
         <v>92</v>
       </c>
       <c r="I8" s="7">
-        <v>70771</v>
+        <v>70770</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1377,7 +1365,7 @@
         <v>714</v>
       </c>
       <c r="I9" s="7">
-        <v>550625</v>
+        <v>550624</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1454,7 +1442,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1469,13 +1457,13 @@
         <v>1058</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -1484,13 +1472,13 @@
         <v>3875</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -1499,13 +1487,13 @@
         <v>4934</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1561,7 +1549,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1573,13 +1561,13 @@
         <v>316635</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>590</v>
@@ -1588,13 +1576,13 @@
         <v>419335</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>874</v>
@@ -1603,13 +1591,13 @@
         <v>735969</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,13 +1612,13 @@
         <v>5605</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -1639,13 +1627,13 @@
         <v>9221</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -1654,13 +1642,13 @@
         <v>14827</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,7 +1704,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1728,13 +1716,13 @@
         <v>188413</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>474</v>
@@ -1743,13 +1731,13 @@
         <v>224267</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>737</v>
@@ -1758,13 +1746,13 @@
         <v>412680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,13 +1767,13 @@
         <v>8335</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -1794,13 +1782,13 @@
         <v>7229</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -1809,13 +1797,13 @@
         <v>15564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,7 +1859,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1883,13 +1871,13 @@
         <v>275460</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>452</v>
@@ -1898,13 +1886,13 @@
         <v>269993</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>819</v>
@@ -1913,13 +1901,13 @@
         <v>545453</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1922,13 @@
         <v>1763</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -1949,13 +1937,13 @@
         <v>5629</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -1964,13 +1952,13 @@
         <v>7392</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2014,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2038,13 +2026,13 @@
         <v>604027</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>930</v>
@@ -2053,13 +2041,13 @@
         <v>784607</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>1505</v>
@@ -2068,13 +2056,13 @@
         <v>1388634</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2077,13 @@
         <v>17692</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -2104,13 +2092,13 @@
         <v>19596</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>50</v>
@@ -2119,13 +2107,13 @@
         <v>37288</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,7 +2169,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2193,13 +2181,13 @@
         <v>816881</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>1012</v>
@@ -2208,13 +2196,13 @@
         <v>831710</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="M25" s="7">
         <v>1722</v>
@@ -2223,13 +2211,13 @@
         <v>1648590</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2232,13 @@
         <v>42547</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>48</v>
@@ -2259,13 +2247,13 @@
         <v>34769</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>100</v>
@@ -2274,13 +2262,13 @@
         <v>77317</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,16 +2333,16 @@
         <v>3185</v>
       </c>
       <c r="D28" s="7">
-        <v>3199804</v>
+        <v>3199803</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>5093</v>
@@ -2363,13 +2351,13 @@
         <v>3626488</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M28" s="7">
         <v>8278</v>
@@ -2378,13 +2366,13 @@
         <v>6826291</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2387,13 @@
         <v>168221</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>264</v>
@@ -2414,13 +2402,13 @@
         <v>173956</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>443</v>
@@ -2429,13 +2417,13 @@
         <v>342177</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,7 +2435,7 @@
         <v>3364</v>
       </c>
       <c r="D30" s="7">
-        <v>3368025</v>
+        <v>3368024</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2491,7 +2479,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD01_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD01_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78D553AC-382A-4251-B54F-AE739104A39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{075CCA9D-00E1-48F2-BFD7-B83CE8E44B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A822A523-A730-491E-9AB4-75DFD064DD9E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E4DBEA8C-B1EF-4670-93D5-2D7FBB244986}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
   <si>
     <t>Población según si utilizan como principal grasa para cocinar el aceite de oliva en 2023 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,58 +134,58 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,25 +194,28 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,8%</t>
+    <t>98,82%</t>
   </si>
   <si>
     <t>99,95%</t>
   </si>
   <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>98,43%</t>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -221,343 +224,352 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>1,57%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>98,26%</t>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>99,28%</t>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -972,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321FE87B-CFC9-4AA8-9FD1-854245718A67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD2109E-4695-4195-B1AA-3A2308EB36FC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1093,7 +1105,7 @@
         <v>303</v>
       </c>
       <c r="D4" s="7">
-        <v>245144</v>
+        <v>293890</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1108,7 +1120,7 @@
         <v>485</v>
       </c>
       <c r="I4" s="7">
-        <v>248537</v>
+        <v>265155</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1123,7 +1135,7 @@
         <v>788</v>
       </c>
       <c r="N4" s="7">
-        <v>493680</v>
+        <v>559044</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1144,7 +1156,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>15154</v>
+        <v>17553</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1159,7 +1171,7 @@
         <v>53</v>
       </c>
       <c r="I5" s="7">
-        <v>22866</v>
+        <v>24480</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1174,7 +1186,7 @@
         <v>81</v>
       </c>
       <c r="N5" s="7">
-        <v>38020</v>
+        <v>42033</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1195,7 +1207,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1210,7 +1222,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1225,7 +1237,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1248,7 +1260,7 @@
         <v>328</v>
       </c>
       <c r="D7" s="7">
-        <v>434086</v>
+        <v>430157</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1263,7 +1275,7 @@
         <v>622</v>
       </c>
       <c r="I7" s="7">
-        <v>479854</v>
+        <v>445534</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1278,7 +1290,7 @@
         <v>950</v>
       </c>
       <c r="N7" s="7">
-        <v>913941</v>
+        <v>875691</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1299,7 +1311,7 @@
         <v>48</v>
       </c>
       <c r="D8" s="7">
-        <v>76066</v>
+        <v>78941</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1314,7 +1326,7 @@
         <v>92</v>
       </c>
       <c r="I8" s="7">
-        <v>70770</v>
+        <v>65862</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1329,7 +1341,7 @@
         <v>140</v>
       </c>
       <c r="N8" s="7">
-        <v>146836</v>
+        <v>144803</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1350,7 +1362,7 @@
         <v>376</v>
       </c>
       <c r="D9" s="7">
-        <v>510152</v>
+        <v>509098</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1365,7 +1377,7 @@
         <v>714</v>
       </c>
       <c r="I9" s="7">
-        <v>550624</v>
+        <v>511396</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1380,7 +1392,7 @@
         <v>1090</v>
       </c>
       <c r="N9" s="7">
-        <v>1060777</v>
+        <v>1020494</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1403,7 +1415,7 @@
         <v>355</v>
       </c>
       <c r="D10" s="7">
-        <v>319159</v>
+        <v>313052</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1418,7 +1430,7 @@
         <v>528</v>
       </c>
       <c r="I10" s="7">
-        <v>368186</v>
+        <v>344289</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1433,7 +1445,7 @@
         <v>883</v>
       </c>
       <c r="N10" s="7">
-        <v>687344</v>
+        <v>657342</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1442,7 +1454,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1454,46 +1466,46 @@
         <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>1058</v>
+        <v>1039</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>3875</v>
+        <v>3682</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>4934</v>
+        <v>4720</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1505,7 +1517,7 @@
         <v>358</v>
       </c>
       <c r="D12" s="7">
-        <v>320217</v>
+        <v>314091</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1520,7 +1532,7 @@
         <v>535</v>
       </c>
       <c r="I12" s="7">
-        <v>372061</v>
+        <v>347971</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1535,7 +1547,7 @@
         <v>893</v>
       </c>
       <c r="N12" s="7">
-        <v>692278</v>
+        <v>662062</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1549,7 +1561,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1558,46 +1570,46 @@
         <v>284</v>
       </c>
       <c r="D13" s="7">
-        <v>316635</v>
+        <v>307337</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>590</v>
       </c>
       <c r="I13" s="7">
-        <v>419335</v>
+        <v>466938</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>874</v>
       </c>
       <c r="N13" s="7">
-        <v>735969</v>
+        <v>774273</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,46 +1621,46 @@
         <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>5605</v>
+        <v>5220</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
       </c>
       <c r="I14" s="7">
-        <v>9221</v>
+        <v>8780</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
       </c>
       <c r="N14" s="7">
-        <v>14827</v>
+        <v>14001</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,7 +1672,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1675,7 +1687,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1690,7 +1702,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1704,7 +1716,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1713,46 +1725,46 @@
         <v>263</v>
       </c>
       <c r="D16" s="7">
-        <v>188413</v>
+        <v>171234</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>474</v>
       </c>
       <c r="I16" s="7">
-        <v>224267</v>
+        <v>201615</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>737</v>
       </c>
       <c r="N16" s="7">
-        <v>412680</v>
+        <v>372849</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,46 +1776,46 @@
         <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>8335</v>
+        <v>7508</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
       </c>
       <c r="I17" s="7">
-        <v>7229</v>
+        <v>6659</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
       </c>
       <c r="N17" s="7">
-        <v>15564</v>
+        <v>14167</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1815,7 +1827,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1830,7 +1842,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1845,7 +1857,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1859,7 +1871,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1868,46 +1880,46 @@
         <v>367</v>
       </c>
       <c r="D19" s="7">
-        <v>275460</v>
+        <v>267930</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>452</v>
       </c>
       <c r="I19" s="7">
-        <v>269993</v>
+        <v>251825</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>819</v>
       </c>
       <c r="N19" s="7">
-        <v>545453</v>
+        <v>519755</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,46 +1931,46 @@
         <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>1763</v>
+        <v>1706</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
       </c>
       <c r="I20" s="7">
-        <v>5629</v>
+        <v>5231</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
       </c>
       <c r="N20" s="7">
-        <v>7392</v>
+        <v>6937</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,7 +1982,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1985,7 +1997,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2000,7 +2012,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2014,7 +2026,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2023,46 +2035,46 @@
         <v>575</v>
       </c>
       <c r="D22" s="7">
-        <v>604027</v>
+        <v>600355</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>930</v>
       </c>
       <c r="I22" s="7">
-        <v>784607</v>
+        <v>831035</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>1505</v>
       </c>
       <c r="N22" s="7">
-        <v>1388634</v>
+        <v>1431389</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,46 +2086,46 @@
         <v>20</v>
       </c>
       <c r="D23" s="7">
-        <v>17692</v>
+        <v>17065</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
       </c>
       <c r="I23" s="7">
-        <v>19596</v>
+        <v>18230</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>50</v>
       </c>
       <c r="N23" s="7">
-        <v>37288</v>
+        <v>35295</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,7 +2137,7 @@
         <v>595</v>
       </c>
       <c r="D24" s="7">
-        <v>621719</v>
+        <v>617420</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2140,7 +2152,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2155,7 +2167,7 @@
         <v>1555</v>
       </c>
       <c r="N24" s="7">
-        <v>1425922</v>
+        <v>1466684</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2169,7 +2181,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2178,46 +2190,46 @@
         <v>710</v>
       </c>
       <c r="D25" s="7">
-        <v>816881</v>
+        <v>892491</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="H25" s="7">
         <v>1012</v>
       </c>
       <c r="I25" s="7">
-        <v>831710</v>
+        <v>687362</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>1722</v>
       </c>
       <c r="N25" s="7">
-        <v>1648590</v>
+        <v>1579854</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,46 +2241,46 @@
         <v>52</v>
       </c>
       <c r="D26" s="7">
-        <v>42547</v>
+        <v>36229</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>48</v>
       </c>
       <c r="I26" s="7">
-        <v>34769</v>
+        <v>28743</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>100</v>
       </c>
       <c r="N26" s="7">
-        <v>77317</v>
+        <v>64972</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,7 +2292,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2295,7 +2307,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>866479</v>
+        <v>716105</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2310,7 +2322,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1725907</v>
+        <v>1644826</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2333,46 +2345,46 @@
         <v>3185</v>
       </c>
       <c r="D28" s="7">
-        <v>3199803</v>
+        <v>3276446</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>5093</v>
       </c>
       <c r="I28" s="7">
-        <v>3626488</v>
+        <v>3493752</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>8278</v>
       </c>
       <c r="N28" s="7">
-        <v>6826291</v>
+        <v>6770198</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,46 +2396,46 @@
         <v>179</v>
       </c>
       <c r="D29" s="7">
-        <v>168221</v>
+        <v>165261</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>264</v>
       </c>
       <c r="I29" s="7">
-        <v>173956</v>
+        <v>161667</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>443</v>
       </c>
       <c r="N29" s="7">
-        <v>342177</v>
+        <v>326928</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,7 +2447,7 @@
         <v>3364</v>
       </c>
       <c r="D30" s="7">
-        <v>3368024</v>
+        <v>3441707</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2450,7 +2462,7 @@
         <v>5357</v>
       </c>
       <c r="I30" s="7">
-        <v>3800444</v>
+        <v>3655419</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2465,7 +2477,7 @@
         <v>8721</v>
       </c>
       <c r="N30" s="7">
-        <v>7168468</v>
+        <v>7097126</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2479,7 +2491,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
